--- a/项目情况.xlsx
+++ b/项目情况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="13704" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="13704" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目一览" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,9 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鄂电冶</t>
-  </si>
-  <si>
     <t>节假日前的最后一个工作日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +122,6 @@
   </si>
   <si>
     <t>解决方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统中没有同煤金庄二期的项目，看下资料，做了保理，看看为什么没有在系统记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -261,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下周查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未处理</t>
   </si>
   <si>
@@ -325,6 +314,34 @@
   </si>
   <si>
     <t>丰喜二期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂电冶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰喜二期的最后三期租金都少一分钱，需要做支付表变更把金额调整正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经放款但是没有做放款回执上传（核销）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统中没有同煤金庄二期的项目，看下资料，看看为什么没有在系统记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要通知宫平去做支付表变更</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -535,6 +552,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -838,11 +859,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -871,7 +892,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -880,16 +901,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>2</v>
@@ -898,34 +919,34 @@
         <v>3</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="N1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>12</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>4</v>
@@ -936,13 +957,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4">
         <v>20</v>
@@ -954,10 +975,10 @@
         <v>41388</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="21">
         <v>5.1200000000000002E-2</v>
@@ -975,7 +996,7 @@
         <v>13200000</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="11">
         <v>0</v>
@@ -990,7 +1011,7 @@
         <v>800000000</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
@@ -998,13 +1019,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4">
         <v>12</v>
@@ -1016,10 +1037,10 @@
         <v>41666</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J3" s="22">
         <v>9.1249999999999998E-2</v>
@@ -1028,7 +1049,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M3" s="11">
         <v>0.4</v>
@@ -1037,7 +1058,7 @@
         <v>4000000</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P3" s="12">
         <v>5.8000000000000003E-2</v>
@@ -1052,7 +1073,7 @@
         <v>10000000</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="86.4" x14ac:dyDescent="0.25">
@@ -1060,13 +1081,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" s="4">
         <v>11</v>
@@ -1078,10 +1099,10 @@
         <v>41152</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J4" s="22">
         <v>6.9000000000000006E-2</v>
@@ -1099,7 +1120,7 @@
         <v>10000000</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P4" s="11">
         <v>0.1</v>
@@ -1114,7 +1135,7 @@
         <v>200000000</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
@@ -1122,13 +1143,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4">
         <v>12</v>
@@ -1140,10 +1161,10 @@
         <v>42475</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J5" s="22">
         <v>4.5124999999999998E-2</v>
@@ -1161,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P5" s="11">
         <v>0</v>
@@ -1176,7 +1197,7 @@
         <v>400000000</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -2292,168 +2313,195 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="88.5546875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="33" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="10"/>
+    <col min="2" max="2" width="44.109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="36" customWidth="1"/>
+    <col min="4" max="7" width="9.109375" style="10"/>
+    <col min="8" max="8" width="13.33203125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="35"/>
+    <col min="10" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B3" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B4" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="33" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="33" t="s">
+      <c r="B15" s="24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+    <row r="16" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="24"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="24"/>
+      <c r="B20" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2483,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H1">
         <v>11257</v>
@@ -2492,16 +2540,16 @@
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O1" s="13">
         <v>42573.654583333337</v>
       </c>
       <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
         <v>41</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/项目情况.xlsx
+++ b/项目情况.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="13704" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="4560" windowHeight="1380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目一览" sheetId="1" r:id="rId1"/>
     <sheet name="问题-任务" sheetId="3" r:id="rId2"/>
     <sheet name="草稿" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">'问题-任务'!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,15 +140,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统中国电海运三期应该结束了但是没有结束（咨询朱彩霞或者李红霞）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资料中孤儿文件夹什么意思？（咨询刘芳）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已告知平强解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -171,19 +166,6 @@
   </si>
   <si>
     <t>EGIC-HZL-EEDSDY05130322</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高卓</t>
-  </si>
-  <si>
-    <t>GWC-20160722154236346</t>
-  </si>
-  <si>
-    <t>AAAWrUAAEAAAJWDAAs</t>
-  </si>
-  <si>
-    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -232,10 +214,6 @@
     <t>国电内蒙古</t>
   </si>
   <si>
-    <t>EGIC-HZ-GDDL03160415</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>逾期超过5天按日罚息率0.0005计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,21 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待李红霞回来与平强交接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未处理</t>
-  </si>
-  <si>
-    <t>未处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已通知平强王海龙但是还没有处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,26 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄冈医院的留购价改为10  业务员录错（咨询王海龙）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待李红霞回来与平强交接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待李红霞回来与李红霞朱彩霞讨论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用章申请中份数与用章次数不做关联，里面的文本框全用可扩展的，查看下合同号规则（目前合同编号中业务类型回租是HZ）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改系统密码时去掉手机号验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,11 +280,152 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>等待刘芳审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGIC-HZ-GDDL03160415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统催收管理中的条件查询有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件发送有时流程发起人是空值：把发起流程后发邮件的那段代码找出来看看，有个bug，有时候发送的邮件没有发起人名称，是空的，看看是什么原因导致的，我猜是发起流程的代码还没有跑完就开始跑发邮件的代码了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罚息的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成咨询服务类合同号时的规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>系统中没有同煤金庄二期的项目，看下资料，看看为什么没有在系统记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要通知宫平去做支付表变更</t>
+    <t>系统中国电海运三期应该结束了但是没有结束（咨询朱彩霞或者李红霞）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在做发票申请没有审批通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询红霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知平强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用章申请中份数与用章次数不做关联，里面的文本框全用可扩展的，
+查看下合同号规则（目前合同编号中业务类型回租是HZ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已从数据库修改完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整咨询服务类的合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了查询发起人的sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平强修改数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除多余数据，手速快发起多次导致的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平强调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经逾期法务正在处理，处理后李红霞解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比系统与实际的方案信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比系统与实际的支付表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承租人简称校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同煤金庄二期的还款表没有起租日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询李红霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做支付表变更等项目结束后在系统做结清</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +472,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,14 +497,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -456,11 +534,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,7 +585,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,22 +628,28 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -860,10 +954,10 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -877,15 +971,15 @@
     <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" style="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="16.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.44140625" style="16" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="80.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9.109375" style="1"/>
   </cols>
@@ -918,10 +1012,10 @@
       <c r="I1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="25" t="s">
+      <c r="J1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="24" t="s">
         <v>19</v>
       </c>
       <c r="L1" s="7" t="s">
@@ -930,7 +1024,7 @@
       <c r="M1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="7" t="s">
@@ -939,13 +1033,13 @@
       <c r="P1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="13" t="s">
         <v>11</v>
       </c>
       <c r="T1" s="7" t="s">
@@ -957,10 +1051,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>12</v>
@@ -978,12 +1072,12 @@
         <v>5</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="21">
+        <v>33</v>
+      </c>
+      <c r="J2" s="20">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="25">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="L2" s="5">
@@ -992,7 +1086,7 @@
       <c r="M2" s="12">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="14">
         <v>13200000</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -1001,17 +1095,17 @@
       <c r="P2" s="11">
         <v>0</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="14">
         <v>0</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="14">
         <v>800000000</v>
       </c>
-      <c r="S2" s="15">
+      <c r="S2" s="14">
         <v>800000000</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
@@ -1040,21 +1134,21 @@
         <v>5</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="22">
+        <v>33</v>
+      </c>
+      <c r="J3" s="21">
         <v>9.1249999999999998E-2</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="26">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L3" s="18" t="s">
-        <v>50</v>
+      <c r="L3" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="M3" s="11">
         <v>0.4</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="14">
         <v>4000000</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -1063,17 +1157,17 @@
       <c r="P3" s="12">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="14">
         <v>580000</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="14">
         <v>10000000</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="14">
         <v>10000000</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="86.4" x14ac:dyDescent="0.25">
@@ -1081,13 +1175,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4">
         <v>11</v>
@@ -1095,19 +1189,19 @@
       <c r="F4" s="4">
         <v>23</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
         <v>41152</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>44</v>
+      <c r="H4" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="22">
+        <v>33</v>
+      </c>
+      <c r="J4" s="21">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="26">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="L4" s="4">
@@ -1135,18 +1229,18 @@
         <v>200000000</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>52</v>
+      <c r="B5" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
@@ -1164,12 +1258,12 @@
         <v>5</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="22">
+        <v>33</v>
+      </c>
+      <c r="J5" s="21">
         <v>4.5124999999999998E-2</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="26">
         <v>1.6899999999999999E-4</v>
       </c>
       <c r="L5" s="4">
@@ -1178,7 +1272,7 @@
       <c r="M5" s="11">
         <v>0</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="15">
         <v>0</v>
       </c>
       <c r="O5" s="4" t="s">
@@ -1187,17 +1281,17 @@
       <c r="P5" s="11">
         <v>0</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="14">
         <v>0</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="14">
         <v>400000000</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="14">
         <v>400000000</v>
       </c>
-      <c r="T5" s="18" t="s">
-        <v>54</v>
+      <c r="T5" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1212,16 +1306,16 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="27"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="26"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="16"/>
+      <c r="N6" s="15"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1236,16 +1330,16 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="27"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="16"/>
+      <c r="N7" s="15"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1260,16 +1354,16 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="27"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="26"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="16"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1284,16 +1378,16 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="27"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="26"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="16"/>
+      <c r="N9" s="15"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1308,16 +1402,16 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="27"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="26"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="16"/>
+      <c r="N10" s="15"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1332,16 +1426,16 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="27"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="26"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="16"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1356,16 +1450,16 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="27"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="16"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1380,16 +1474,16 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="27"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="16"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1404,16 +1498,16 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="27"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="26"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="16"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1428,16 +1522,16 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="27"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="26"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="16"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1452,16 +1546,16 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="27"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="26"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="16"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1476,16 +1570,16 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="27"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="26"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="16"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -1500,16 +1594,16 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="27"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="26"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="15"/>
+      <c r="N18" s="14"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -1524,16 +1618,16 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="27"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="26"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="15"/>
+      <c r="N19" s="14"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
       <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -1548,16 +1642,16 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="27"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="26"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="15"/>
+      <c r="N20" s="14"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -1572,16 +1666,16 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="27"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="26"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="15"/>
+      <c r="N21" s="14"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -1596,16 +1690,16 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="27"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="26"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="15"/>
+      <c r="N22" s="14"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -1620,16 +1714,16 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="27"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="26"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="15"/>
+      <c r="N23" s="14"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -1644,16 +1738,16 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="27"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="26"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="15"/>
+      <c r="N24" s="14"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -1668,16 +1762,16 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="27"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="26"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="15"/>
+      <c r="N25" s="14"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -1692,16 +1786,16 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="27"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="26"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="15"/>
+      <c r="N26" s="14"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -1716,16 +1810,16 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="27"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="26"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="15"/>
+      <c r="N27" s="14"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -1740,16 +1834,16 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="27"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="26"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="15"/>
+      <c r="N28" s="14"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -1764,16 +1858,16 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="27"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="26"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="15"/>
+      <c r="N29" s="14"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
       <c r="T29" s="4"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -1788,16 +1882,16 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="27"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="26"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="15"/>
+      <c r="N30" s="14"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -1812,16 +1906,16 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="27"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="26"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="15"/>
+      <c r="N31" s="14"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -1836,16 +1930,16 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="27"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="26"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="15"/>
+      <c r="N32" s="14"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -1860,16 +1954,16 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="27"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="26"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="15"/>
+      <c r="N33" s="14"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
       <c r="T33" s="4"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -1884,16 +1978,16 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="27"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="26"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="15"/>
+      <c r="N34" s="14"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -1908,16 +2002,16 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="27"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="26"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="15"/>
+      <c r="N35" s="14"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -1932,16 +2026,16 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="27"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="26"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="15"/>
+      <c r="N36" s="14"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
       <c r="T36" s="4"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -1956,16 +2050,16 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="27"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="26"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="15"/>
+      <c r="N37" s="14"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
       <c r="T37" s="4"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -1980,16 +2074,16 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="27"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="26"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="15"/>
+      <c r="N38" s="14"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
       <c r="T38" s="4"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -2004,16 +2098,16 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="27"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="26"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="15"/>
+      <c r="N39" s="14"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
       <c r="T39" s="4"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -2028,16 +2122,16 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="27"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="26"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="15"/>
+      <c r="N40" s="14"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
       <c r="T40" s="4"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -2052,16 +2146,16 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="27"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="26"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="15"/>
+      <c r="N41" s="14"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
       <c r="T41" s="4"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -2076,16 +2170,16 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="27"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="26"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="15"/>
+      <c r="N42" s="14"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
       <c r="T42" s="4"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -2100,16 +2194,16 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="27"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="26"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="15"/>
+      <c r="N43" s="14"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
       <c r="T43" s="4"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -2124,16 +2218,16 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="27"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="26"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="15"/>
+      <c r="N44" s="14"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
       <c r="T44" s="4"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -2148,16 +2242,16 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="27"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="26"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="15"/>
+      <c r="N45" s="14"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
       <c r="T45" s="4"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -2172,16 +2266,16 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="27"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="26"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="15"/>
+      <c r="N46" s="14"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
       <c r="T46" s="4"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -2196,16 +2290,16 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="27"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="26"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="15"/>
+      <c r="N47" s="14"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
       <c r="T47" s="4"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -2220,16 +2314,16 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="27"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="26"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="15"/>
+      <c r="N48" s="14"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
       <c r="T48" s="4"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -2244,16 +2338,16 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="27"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="26"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="15"/>
+      <c r="N49" s="14"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
       <c r="T49" s="4"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -2268,16 +2362,16 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="27"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="26"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="15"/>
+      <c r="N50" s="14"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
       <c r="T50" s="4"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -2292,16 +2386,16 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="27"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="26"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
-      <c r="N51" s="15"/>
+      <c r="N51" s="14"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
       <c r="T51" s="4"/>
     </row>
   </sheetData>
@@ -2313,197 +2407,474 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.5546875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="44.109375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="36" customWidth="1"/>
-    <col min="4" max="7" width="9.109375" style="10"/>
-    <col min="8" max="8" width="13.33203125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="35"/>
-    <col min="10" max="16384" width="9.109375" style="10"/>
+    <col min="1" max="1" width="90.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.109375" style="10"/>
+    <col min="10" max="10" width="13.33203125" style="30" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="30"/>
+    <col min="12" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="36">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="36" t="s">
+      <c r="D10" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="D11" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="36" t="s">
+      <c r="B12" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E12" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E13" s="36">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E14" s="36">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E15" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E16" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E17" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E18" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E19" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E20" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E21" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E22" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E23" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E24" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E25" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E26" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="24"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="B27" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E27" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E28" s="36">
+        <v>42668</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1"/>
+  <sortState ref="A2:F28">
+    <sortCondition ref="C1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2512,47 +2883,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C7:C8"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>45</v>
-      </c>
-      <c r="B1">
-        <v>278</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1">
-        <v>11257</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="13">
-        <v>42573.654583333337</v>
-      </c>
-      <c r="P1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/项目情况.xlsx
+++ b/项目情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,6 +426,42 @@
   </si>
   <si>
     <t>做支付表变更等项目结束后在系统做结清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知平强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付表编号规则   合同号-ZJ-01    末尾的不足10补零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在系统中维护每个项目我司的收款账户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金支付通知书导出的表格有些信息显示不出来，期次缺少汉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目做成之后业务需要提供客户联系方式邮寄地址，租金通知方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将合同签订日期维护到系统当中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出实际支付表号与系统不一致的，整理出来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2407,10 +2443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2443,83 +2479,83 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D2" s="36">
-        <v>42668</v>
+        <v>42670</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D3" s="36">
-        <v>42668</v>
+        <v>42670</v>
+      </c>
+      <c r="E3" s="36">
+        <v>42670</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D4" s="36">
-        <v>42668</v>
+        <v>42670</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D5" s="36">
-        <v>42668</v>
+        <v>42669</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D6" s="36">
-        <v>42669</v>
+        <v>42668</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D7" s="36">
         <v>42668</v>
@@ -2527,13 +2563,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D8" s="36">
         <v>42668</v>
@@ -2541,13 +2577,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D9" s="36">
         <v>42668</v>
@@ -2555,13 +2591,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="36">
         <v>42668</v>
@@ -2569,13 +2605,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" s="36">
         <v>42668</v>
@@ -2583,64 +2619,55 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="36">
         <v>42668</v>
       </c>
-      <c r="E12" s="36">
-        <v>42668</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>55</v>
+      <c r="A13" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D13" s="36">
         <v>42668</v>
-      </c>
-      <c r="E13" s="36">
-        <v>42669</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D14" s="36">
         <v>42668</v>
-      </c>
-      <c r="E14" s="36">
-        <v>42669</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D15" s="36">
         <v>42668</v>
@@ -2650,28 +2677,28 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>69</v>
+      <c r="A16" s="33" t="s">
+        <v>55</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D16" s="36">
         <v>42668</v>
       </c>
       <c r="E16" s="36">
-        <v>42668</v>
+        <v>42669</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>98</v>
@@ -2680,15 +2707,15 @@
         <v>42668</v>
       </c>
       <c r="E17" s="36">
-        <v>42668</v>
+        <v>42669</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>98</v>
@@ -2701,11 +2728,11 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>30</v>
+      <c r="A19" s="28" t="s">
+        <v>69</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>98</v>
@@ -2719,10 +2746,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>98</v>
@@ -2736,10 +2763,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>98</v>
@@ -2753,10 +2780,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>98</v>
@@ -2768,12 +2795,12 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>80</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>98</v>
@@ -2786,11 +2813,11 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>53</v>
+      <c r="A24" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>98</v>
@@ -2803,11 +2830,11 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
-        <v>24</v>
+      <c r="A25" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>98</v>
@@ -2819,12 +2846,12 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
-        <v>54</v>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>80</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>98</v>
@@ -2836,12 +2863,12 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>66</v>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>98</v>
@@ -2854,11 +2881,11 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>82</v>
+      <c r="A28" s="34" t="s">
+        <v>24</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>98</v>
@@ -2870,10 +2897,76 @@
         <v>42668</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E29" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E30" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E31" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
-  <sortState ref="A2:F28">
-    <sortCondition ref="C1"/>
+  <sortState ref="A2:E29">
+    <sortCondition descending="1" ref="D1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目情况.xlsx
+++ b/项目情况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="4560" windowHeight="1380" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="10896" windowHeight="10104" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目一览" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="136">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>罚息的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生成咨询服务类合同号时的规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统中国电海运三期应该结束了但是没有结束（咨询朱彩霞或者李红霞）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正在做发票申请没有审批通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,18 +317,6 @@
   </si>
   <si>
     <t>通知平强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过一遍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -389,31 +369,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>对比系统与实际的方案信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比系统与实际的支付表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承租人简称校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同煤金庄二期的还款表没有起租日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做支付表变更等项目结束后在系统做结清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对比系统与实际的方案信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对比系统与实际的支付表信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承租人简称校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同煤金庄二期的还款表没有起租日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咨询李红霞</t>
+    <t>支付表编号规则   合同号-ZJ-01    末尾的不足10补零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在系统中维护每个项目我司的收款账户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金支付通知书导出的表格有些信息显示不出来，期次缺少汉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将合同签订日期维护到系统当中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证金退回申请页面，收款人要可以修改，收款开户行取客户银行信息的开会行全称</t>
+  </si>
+  <si>
+    <t>导出支付表功能完善</t>
+  </si>
+  <si>
+    <t>罚息复利计算不对</t>
+  </si>
+  <si>
+    <t>晋煤三期的来款金额前三期需要修改</t>
+  </si>
+  <si>
+    <t>晋煤三期支付表变更没有数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临港二期修改收款银行报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程意见不填写的话提示的意见不对，应该显示：请填写意见！</t>
+  </si>
+  <si>
+    <t>潞安集团二期支付表拆分报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潞安集团二期租赁物信息中出卖人不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漯河水务融资还款表修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神华煤制油1和4，遇节假日不处理改为提前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批流程的打印功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改方案名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出实际支付表号与系统不一致的，整理出来并修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用章申请流程图，部门经理提交用章审批时，两次分管领导审批，判断节点是不是再设置一下，
+顺便检查一下其它流程图是不是也是这样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有色一二三期加担保人，担保人名称：陕西有色金属控股集团有限责任公司</t>
+  </si>
+  <si>
+    <t>长春城开需要做提前结清，不做租金提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州燃气发电合同中没有支付表编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付表变更中缺少合同号为EGIC-HZL-JMJT05141225晋煤二期的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租后检查预警字段没有填写值的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月有租金提醒的项目已经完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑煤项目EGIC-HZL-ZMJT05130520 的项目已经核销但是没有开票申请数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为系统8月份之前的应收款不做开票，线下解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,15 +504,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做支付表变更等项目结束后在系统做结清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知平强</t>
+    <t>已经配合修改完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟江辉加入购物车后没有发起流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平强已给予解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潞安余吾容海没有开票数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为录入的来款时间有误导致有罚息，冲红修改来款从新核销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -437,31 +528,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支付表编号规则   合同号-ZJ-01    末尾的不足10补零</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在系统中维护每个项目我司的收款账户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租金支付通知书导出的表格有些信息显示不出来，期次缺少汉子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目做成之后业务需要提供客户联系方式邮寄地址，租金通知方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将合同签订日期维护到系统当中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找出实际支付表号与系统不一致的，整理出来</t>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差、请假申请流程图，判断节点再优化一下，对于一人分饰两层角色（如即是部门经理，又是分管领导），在出差及请假申请中，若时间短于2天，就会出现自己提交申请，自己审批完，流程就结束了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平强已经处理，等待更新系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询项目相关人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平强正在修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统中国电海运三期应该结束了但是没有结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -685,7 +788,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -993,7 +1099,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2443,16 +2549,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="94.44140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="55.88671875" style="31" customWidth="1"/>
     <col min="3" max="5" width="14.44140625" style="31" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9.109375" style="10"/>
     <col min="10" max="10" width="13.33203125" style="30" customWidth="1"/>
@@ -2471,502 +2578,791 @@
         <v>61</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D2" s="36">
-        <v>42670</v>
+        <v>42668</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>105</v>
+        <v>87</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D3" s="36">
-        <v>42670</v>
-      </c>
-      <c r="E3" s="36">
-        <v>42670</v>
+        <v>42668</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D4" s="36">
         <v>42670</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>96</v>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D5" s="36">
-        <v>42669</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="D6" s="36">
-        <v>42668</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="D7" s="36">
-        <v>42668</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="D8" s="36">
-        <v>42668</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="D9" s="36">
-        <v>42668</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D10" s="36">
-        <v>42668</v>
+        <v>42678</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D11" s="36">
-        <v>42668</v>
+        <v>42678</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D12" s="36">
-        <v>42668</v>
+        <v>42672</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="D13" s="36">
-        <v>42668</v>
+        <v>42675</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D14" s="36">
-        <v>42668</v>
+        <v>42676</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D15" s="36">
-        <v>42668</v>
-      </c>
-      <c r="E15" s="36">
-        <v>42668</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>99</v>
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>109</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D16" s="36">
-        <v>42668</v>
-      </c>
-      <c r="E16" s="36">
-        <v>42669</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="D17" s="36">
-        <v>42668</v>
-      </c>
-      <c r="E17" s="36">
-        <v>42669</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="D18" s="36">
-        <v>42668</v>
-      </c>
-      <c r="E18" s="36">
-        <v>42668</v>
+        <v>42676</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>60</v>
+      <c r="A19" s="29" t="s">
+        <v>112</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="D19" s="36">
-        <v>42668</v>
-      </c>
-      <c r="E19" s="36">
-        <v>42668</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="D20" s="36">
-        <v>42668</v>
-      </c>
-      <c r="E20" s="36">
         <v>42668</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="D21" s="36">
-        <v>42668</v>
-      </c>
-      <c r="E21" s="36">
         <v>42668</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="D22" s="36">
-        <v>42668</v>
-      </c>
-      <c r="E22" s="36">
         <v>42668</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="D23" s="36">
-        <v>42668</v>
-      </c>
-      <c r="E23" s="36">
-        <v>42668</v>
+        <v>42669</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D24" s="36">
-        <v>42668</v>
+        <v>42671</v>
       </c>
       <c r="E24" s="36">
-        <v>42668</v>
+        <v>42675</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C25" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E25" s="36">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="36">
+        <v>42670</v>
+      </c>
+      <c r="E26" s="36">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E27" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="36">
-        <v>42668</v>
-      </c>
-      <c r="E25" s="36">
-        <v>42668</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="36">
-        <v>42668</v>
-      </c>
-      <c r="E26" s="36">
-        <v>42668</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="36">
-        <v>42668</v>
-      </c>
-      <c r="E27" s="36">
-        <v>42668</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="36">
-        <v>42668</v>
-      </c>
-      <c r="E28" s="36">
-        <v>42668</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="36">
-        <v>42668</v>
-      </c>
-      <c r="E29" s="36">
-        <v>42668</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>66</v>
-      </c>
       <c r="B30" s="31" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="D30" s="36">
-        <v>42668</v>
+        <v>42678</v>
       </c>
       <c r="E30" s="36">
-        <v>42668</v>
+        <v>42678</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="D31" s="36">
-        <v>42668</v>
+        <v>42678</v>
       </c>
       <c r="E31" s="36">
-        <v>42668</v>
+        <v>42678</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="36">
+        <v>42678</v>
+      </c>
+      <c r="E32" s="36">
+        <v>42678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="36">
+        <v>42678</v>
+      </c>
+      <c r="E33" s="36">
+        <v>42678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="36">
+        <v>42676</v>
+      </c>
+      <c r="E34" s="36">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="36">
+        <v>42677</v>
+      </c>
+      <c r="E35" s="36">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="36">
+        <v>42677</v>
+      </c>
+      <c r="E36" s="36">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>108</v>
+      <c r="C37" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="36">
+        <v>42676</v>
+      </c>
+      <c r="E37" s="36">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="36">
+        <v>42670</v>
+      </c>
+      <c r="E38" s="36">
+        <v>42670</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E39" s="36">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E40" s="36">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E41" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E42" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E43" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E44" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E45" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E46" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E47" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E48" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E49" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E50" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E51" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E52" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E53" s="36">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="36">
+        <v>42668</v>
+      </c>
+      <c r="E54" s="36">
+        <v>42668</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
-  <sortState ref="A2:E29">
-    <sortCondition descending="1" ref="D1"/>
+  <sortState ref="A2:E54">
+    <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
